--- a/data/trans_camb/P6906-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6906-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P6906-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6906-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>45,79</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,95</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,05</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,88</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,17</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,48; 37,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,39; 56,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,4; 12,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 67,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,1; 86,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,34; 40,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,69; 35,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,73; 54,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,81; 20,37</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>273,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>279,57%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,85%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>379,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>642,27%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>159,35%</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,24</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,1</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,28; 12,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,46; 23,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,66; 22,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,75; 40,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,09; 28,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,53; 19,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,39; 16,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,27; 19,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,91; 17,63</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,45%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,92%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,52; 117,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,54; 226,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,58; 218,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,55; 410,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,09; 301,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,21; 210,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,56; 135,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,29; 157,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,65; 168,0</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,8</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,46</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,62</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,82</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,02; 13,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,31; 7,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,77; 4,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,33; 34,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,19; 34,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,91; 23,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 17,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,64; 12,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,38; 8,79</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,75%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,99%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>115,77%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>115,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,37%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,75%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,87; 80,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,22; 42,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,79; 26,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,67; 411,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,36; 377,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,42; 280,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,0; 103,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,01; 75,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,92; 53,5</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,09</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,93</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,87</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,14</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,8; 30,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,67; 18,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,92; 9,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,61; 10,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,76; 16,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,44; 13,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,79; 18,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,9; 12,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,27; 9,75</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,4%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,18%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,38%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,95%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,56%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,67%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,13%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,1%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,36; 207,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,39; 133,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,73; 73,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,79; 68,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,18; 96,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,34; 84,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,49; 102,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,49; 72,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,38; 53,58</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,07</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,42</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,76</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,95; 8,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,84; 12,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,3; 5,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,02; 21,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 30,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,57; 18,43</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,75; 10,6</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,54; 15,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,47; 7,24</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,8%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,43%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,6%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,62%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,43%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,48%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,83%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,77; 36,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,31; 51,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,0; 26,09</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,87; 125,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 177,64</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,97; 112,38</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,49; 46,23</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,27; 68,68</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,19; 32,49</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 9,86</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,1; 7,65</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,28; 1,67</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 15,94</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,18; 19,01</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,18; 11,96</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,02; 9,98</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 10,14</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,16; 5,06</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,67%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,54%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,8%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,2%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,58%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,88; 48,34</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,97; 37,24</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,29; 8,96</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,94; 89,47</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,75; 106,57</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,67; 68,67</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 50,41</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,01; 49,18</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,28; 25,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6906-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6906-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,17 +632,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,25</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,62</t>
+          <t>7,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,27 +652,27 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>45,79</t>
+          <t>12,23</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,95</t>
+          <t>5,91</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,05</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,88</t>
+          <t>9,57</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,17</t>
+          <t>4,86</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 37,92</t>
+          <t>-9,1; 15,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 56,29</t>
+          <t>-7,17; 21,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,4; 12,83</t>
+          <t>-9,2; 17,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,54</t>
+          <t>-4,37; 36,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,1; 86,93</t>
+          <t>-10,81; 33,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,34; 40,8</t>
+          <t>-12,92; 20,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 35,82</t>
+          <t>-3,74; 16,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,73; 54,62</t>
+          <t>-3,09; 21,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 20,37</t>
+          <t>-5,55; 14,65</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>273,66%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>279,57%</t>
+          <t>51,41%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,85%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>88,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>69,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>33,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>379,12%</t>
+          <t>42,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>642,27%</t>
+          <t>59,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>159,35%</t>
+          <t>30,4%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,73; 168,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,02; 210,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,56; 190,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,04; 515,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,41; 357,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,73; 309,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,95; 160,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,45; 201,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,73; 139,71</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,66</t>
+          <t>-5,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>-5,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,24</t>
+          <t>18,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>18,46</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>10,7</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,66</t>
+          <t>7,82</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>0,92</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 12,11</t>
+          <t>-10,02; 13,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 23,75</t>
+          <t>-15,31; 7,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 22,73</t>
+          <t>-15,08; 5,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 40,65</t>
+          <t>2,33; 34,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,09; 28,78</t>
+          <t>2,19; 34,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 19,2</t>
+          <t>-2,49; 23,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 16,92</t>
+          <t>-1,41; 17,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 19,15</t>
+          <t>-6,64; 12,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 17,63</t>
+          <t>-7,22; 9,5</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,54%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>-22,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>-23,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>75,17%</t>
+          <t>115,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>115,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>66,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,94%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28,45%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>4,46%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-65,52; 117,15</t>
+          <t>-39,87; 80,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-45,54; 226,91</t>
+          <t>-59,22; 42,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-54,58; 218,27</t>
+          <t>-57,13; 33,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,55; 410,71</t>
+          <t>3,67; 411,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-65,09; 301,67</t>
+          <t>5,36; 377,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,21; 210,19</t>
+          <t>-15,11; 283,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-38,56; 135,77</t>
+          <t>-8,0; 103,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,29; 157,67</t>
+          <t>-28,01; 75,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-31,65; 168,0</t>
+          <t>-28,81; 56,13</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>16,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,07</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,8</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18,53</t>
+          <t>-6,87</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>18,46</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,62</t>
+          <t>-8,74</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,82</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-4,36</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 13,57</t>
+          <t>2,8; 30,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 7,55</t>
+          <t>-6,67; 18,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,77; 4,41</t>
+          <t>-16,24; 10,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,33; 34,54</t>
+          <t>-23,61; 10,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,19; 34,13</t>
+          <t>-16,76; 16,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 23,42</t>
+          <t>-33,42; 8,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 17,74</t>
+          <t>-3,79; 18,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 12,2</t>
+          <t>-6,9; 12,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 8,79</t>
+          <t>-18,0; 6,13</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>79,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-22,75%</t>
+          <t>28,18%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-25,99%</t>
+          <t>-17,2%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>115,77%</t>
+          <t>-24,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>115,33%</t>
+          <t>-1,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>66,37%</t>
+          <t>-31,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>37,9%</t>
+          <t>34,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>-19,43%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-39,87; 80,22</t>
+          <t>6,36; 207,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,22; 42,42</t>
+          <t>-27,39; 133,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-58,79; 26,74</t>
+          <t>-64,8; 77,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,67; 411,98</t>
+          <t>-65,79; 68,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,36; 377,17</t>
+          <t>-47,18; 96,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 280,95</t>
+          <t>-79,05; 37,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 103,58</t>
+          <t>-14,49; 102,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-28,01; 75,87</t>
+          <t>-25,49; 72,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-29,92; 53,5</t>
+          <t>-68,67; 31,42</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,09</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,71</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>-6,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,87</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>14,42</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-0,18</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,8; 30,41</t>
+          <t>-15,95; 8,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 18,2</t>
+          <t>-11,84; 12,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,92; 9,42</t>
+          <t>-17,82; 5,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-23,61; 10,32</t>
+          <t>-7,02; 21,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 16,19</t>
+          <t>-0,14; 30,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 13,88</t>
+          <t>-5,36; 19,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 18,66</t>
+          <t>-8,75; 10,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 12,72</t>
+          <t>-3,54; 15,4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 9,75</t>
+          <t>-8,81; 8,02</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>79,4%</t>
+          <t>-13,8%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>28,18%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-19,38%</t>
+          <t>-22,42%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-24,95%</t>
+          <t>28,6%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,56%</t>
+          <t>61,62%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-9,67%</t>
+          <t>30,77%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>34,13%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>22,48%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-5,1%</t>
+          <t>-0,68%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,36; 207,44</t>
+          <t>-47,77; 36,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 133,66</t>
+          <t>-35,31; 51,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-65,73; 73,38</t>
+          <t>-53,0; 28,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-65,79; 68,76</t>
+          <t>-25,87; 125,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-47,18; 96,18</t>
+          <t>-1,07; 177,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-54,34; 84,53</t>
+          <t>-17,75; 119,38</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 102,13</t>
+          <t>-28,49; 46,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-25,49; 72,74</t>
+          <t>-12,27; 68,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-41,38; 53,58</t>
+          <t>-28,12; 35,17</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,99</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-7,07</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,69</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>14,42</t>
+          <t>11,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,42</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>6,02</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-0,14</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,95; 8,06</t>
+          <t>-2,47; 9,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 12,4</t>
+          <t>-5,1; 7,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-18,3; 5,22</t>
+          <t>-9,83; 2,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 21,55</t>
+          <t>-0,37; 15,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 30,44</t>
+          <t>3,18; 19,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 18,43</t>
+          <t>-5,04; 11,06</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 10,6</t>
+          <t>0,02; 9,98</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 15,4</t>
+          <t>0,24; 10,14</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 7,24</t>
+          <t>-5,23; 4,54</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-13,8%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-24,43%</t>
+          <t>-15,97%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>36,54%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>61,62%</t>
+          <t>50,8%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>16,35%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>22,48%</t>
+          <t>22,2%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-2,83%</t>
+          <t>-0,63%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-47,77; 36,93</t>
+          <t>-10,88; 48,34</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-35,31; 51,51</t>
+          <t>-19,97; 37,24</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-54,0; 26,09</t>
+          <t>-38,71; 12,57</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-25,87; 125,0</t>
+          <t>-2,94; 89,47</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 177,64</t>
+          <t>11,75; 106,57</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 112,38</t>
+          <t>-19,73; 62,58</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-28,49; 46,23</t>
+          <t>0,11; 50,41</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 68,68</t>
+          <t>1,01; 49,18</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-30,19; 32,49</t>
+          <t>-21,23; 22,08</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>3,38</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-3,99</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>7,91</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>11,0</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>4,95</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>5,1</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>4,95</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-2,47; 9,86</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-5,1; 7,65</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-10,28; 1,67</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 15,94</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>3,18; 19,01</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-2,18; 11,96</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 9,98</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>0,24; 10,14</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-4,16; 5,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>14,97%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>5,79%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-17,67%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>36,54%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>50,8%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>22,86%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>22,9%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>22,2%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>1,58%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-10,88; 48,34</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-19,97; 37,24</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-40,29; 8,96</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-2,94; 89,47</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>11,75; 106,57</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-8,67; 68,67</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 50,41</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 49,18</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-17,28; 25,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P6906-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6906-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 15,08</t>
+          <t>-9,37; 13,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 21,89</t>
+          <t>-5,56; 22,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 17,96</t>
+          <t>-9,52; 16,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 36,76</t>
+          <t>-8,07; 37,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 33,64</t>
+          <t>-10,74; 33,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 20,81</t>
+          <t>-11,62; 21,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 16,89</t>
+          <t>-3,83; 16,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 21,6</t>
+          <t>-2,38; 21,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 14,65</t>
+          <t>-4,98; 15,51</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,73; 168,17</t>
+          <t>-45,95; 138,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,02; 210,69</t>
+          <t>-37,68; 219,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-46,56; 190,87</t>
+          <t>-49,36; 163,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,04; 515,26</t>
+          <t>-37,58; 431,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,41; 357,91</t>
+          <t>-45,31; 407,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,73; 309,52</t>
+          <t>-42,62; 348,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,95; 160,11</t>
+          <t>-19,52; 157,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 201,71</t>
+          <t>-13,68; 202,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-27,73; 139,71</t>
+          <t>-22,9; 152,59</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 13,57</t>
+          <t>-8,3; 16,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 7,55</t>
+          <t>-16,22; 7,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 5,42</t>
+          <t>-15,97; 5,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,33; 34,54</t>
+          <t>1,31; 33,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 34,13</t>
+          <t>0,47; 34,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 23,32</t>
+          <t>-2,52; 20,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 17,74</t>
+          <t>-2,82; 16,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 12,2</t>
+          <t>-5,86; 12,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 9,5</t>
+          <t>-7,62; 9,8</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-39,87; 80,22</t>
+          <t>-32,14; 97,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-59,22; 42,42</t>
+          <t>-60,33; 42,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,13; 33,41</t>
+          <t>-58,59; 36,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,67; 411,98</t>
+          <t>0,74; 411,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,36; 377,17</t>
+          <t>-9,12; 404,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 283,24</t>
+          <t>-15,6; 243,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 103,58</t>
+          <t>-11,77; 99,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,01; 75,87</t>
+          <t>-25,35; 77,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-28,81; 56,13</t>
+          <t>-30,66; 60,47</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,8; 30,41</t>
+          <t>1,37; 30,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 18,2</t>
+          <t>-7,01; 16,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 10,03</t>
+          <t>-15,3; 10,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,61; 10,32</t>
+          <t>-23,64; 9,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 16,19</t>
+          <t>-17,78; 18,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-33,42; 8,2</t>
+          <t>-31,39; 8,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 18,66</t>
+          <t>-3,04; 18,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 12,72</t>
+          <t>-6,47; 13,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-18,0; 6,13</t>
+          <t>-16,55; 5,56</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,36; 207,44</t>
+          <t>3,52; 225,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 133,66</t>
+          <t>-28,45; 117,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-64,8; 77,81</t>
+          <t>-62,83; 77,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-65,79; 68,76</t>
+          <t>-64,54; 53,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,18; 96,18</t>
+          <t>-48,64; 105,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-79,05; 37,96</t>
+          <t>-78,73; 32,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 102,13</t>
+          <t>-11,63; 112,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,49; 72,74</t>
+          <t>-24,01; 80,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-68,67; 31,42</t>
+          <t>-62,22; 30,48</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,95; 8,06</t>
+          <t>-15,63; 8,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 12,4</t>
+          <t>-11,82; 14,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,82; 5,93</t>
+          <t>-17,77; 5,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 21,55</t>
+          <t>-7,45; 21,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 30,44</t>
+          <t>-0,93; 29,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 19,25</t>
+          <t>-5,39; 18,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 10,6</t>
+          <t>-8,25; 9,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 15,4</t>
+          <t>-3,37; 16,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 8,02</t>
+          <t>-8,05; 8,28</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,77; 36,93</t>
+          <t>-47,55; 36,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,31; 51,51</t>
+          <t>-36,41; 63,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-53,0; 28,04</t>
+          <t>-53,6; 21,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,87; 125,0</t>
+          <t>-27,38; 119,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 177,64</t>
+          <t>-6,15; 158,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 119,38</t>
+          <t>-19,01; 107,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,49; 46,23</t>
+          <t>-27,64; 43,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 68,68</t>
+          <t>-11,61; 72,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,12; 35,17</t>
+          <t>-26,19; 37,28</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 9,86</t>
+          <t>-3,14; 9,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 7,65</t>
+          <t>-5,03; 7,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 2,52</t>
+          <t>-9,4; 3,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 15,94</t>
+          <t>-0,73; 16,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,18; 19,01</t>
+          <t>2,68; 19,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 11,06</t>
+          <t>-5,58; 10,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,02; 9,98</t>
+          <t>0,21; 10,55</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,24; 10,14</t>
+          <t>0,32; 10,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 4,54</t>
+          <t>-4,83; 4,9</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 48,34</t>
+          <t>-12,59; 45,57</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-19,97; 37,24</t>
+          <t>-20,12; 36,23</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-38,71; 12,57</t>
+          <t>-37,97; 14,6</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 89,47</t>
+          <t>-2,97; 94,27</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>11,75; 106,57</t>
+          <t>10,84; 111,27</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-19,73; 62,58</t>
+          <t>-21,05; 57,72</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>0,11; 50,41</t>
+          <t>0,85; 51,52</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1,01; 49,18</t>
+          <t>1,12; 50,55</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 22,08</t>
+          <t>-20,34; 24,0</t>
         </is>
       </c>
     </row>
